--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>777186.404878571</v>
+        <v>774750.7679548641</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11549319.31190522</v>
+        <v>11549319.31190523</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>24.62149822509145</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>90.55308040755106</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6353666620237</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.93891326891439</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>382.9528768247602</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>407.8895948559967</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1066,10 +1066,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>53.08129674328984</v>
+        <v>32.85881373760815</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>342.7616906077131</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>270.5139490778472</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>181.7127250270976</v>
+        <v>222.1526784153801</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>276.0830593329823</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>60.44875740951348</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238027</v>
+        <v>22.6077720323801</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114092</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>87.05432226458123</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035238</v>
+        <v>9.753166794035153</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.253538246862</v>
+        <v>123.2535382468619</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1531,22 +1531,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>124.1004521009535</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034039</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146339</v>
+        <v>79.00824149146331</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076761</v>
       </c>
       <c r="T13" t="n">
-        <v>4.26623290417424</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
         <v>286.1997994941144</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.9813656337144</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,7 +1622,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045452</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>298.9494425801229</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>14.77406814622547</v>
+        <v>7.018581172448061</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>148.615473018212</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>20.92847288552941</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>214.0780236353782</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>-1.350599632132798e-12</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465697</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229318</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>120.787132650395</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>114.720561100775</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>69.82863813026978</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,10 +2485,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189153</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784673</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740288</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016504</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>176.1811323375791</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613102</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,16 +2998,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>152.8697920431067</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3193,13 +3193,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>41.02686156550228</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3430,19 +3430,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>26.13627195705809</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238283</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>35.88641949135607</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560518</v>
       </c>
     </row>
     <row r="42">
@@ -3904,13 +3904,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833838</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,13 +4138,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,13 +4189,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>281.6778446725259</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1753.263343671913</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C2" t="n">
-        <v>1384.300826731502</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D2" t="n">
-        <v>1026.035128124751</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V2" t="n">
-        <v>2866.097597267229</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W2" t="n">
-        <v>2513.328941997115</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X2" t="n">
-        <v>2139.863183736035</v>
+        <v>2062.330773118627</v>
       </c>
       <c r="Y2" t="n">
-        <v>2139.863183736035</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080129</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>403.1511359853714</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1161.740577577775</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>872.3234075408147</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X4" t="n">
-        <v>644.3338566427974</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y4" t="n">
-        <v>584.7996008156111</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1952.040104645724</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="C5" t="n">
-        <v>1952.040104645724</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="D5" t="n">
-        <v>1593.774406038973</v>
+        <v>1210.836060705129</v>
       </c>
       <c r="E5" t="n">
-        <v>1207.986153440729</v>
+        <v>825.047808106885</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>818.1023073576815</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,22 +4562,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4586,31 +4586,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176918</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.040104645724</v>
+        <v>2345.840931351813</v>
       </c>
       <c r="Y5" t="n">
-        <v>1952.040104645724</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>846.3749096777597</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C7" t="n">
-        <v>677.4387267498528</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D7" t="n">
-        <v>527.322087337517</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1584.574209756268</v>
+        <v>1101.718003420938</v>
       </c>
       <c r="W7" t="n">
-        <v>1295.157039719307</v>
+        <v>812.300833383977</v>
       </c>
       <c r="X7" t="n">
-        <v>1067.16748882129</v>
+        <v>584.3112824859596</v>
       </c>
       <c r="Y7" t="n">
-        <v>846.3749096777597</v>
+        <v>363.5187033424295</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1168.124113652745</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>1168.124113652745</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>809.8584150459947</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>424.0701624477504</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
         <v>417.1246616985469</v>
@@ -4799,13 +4799,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4823,7 +4823,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4835,19 +4835,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2688.538263200155</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796418</v>
+        <v>2335.769607930041</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535338</v>
+        <v>1962.303849668961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559526</v>
+        <v>1572.164517693149</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4896,7 +4896,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>604.8580214762837</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C10" t="n">
-        <v>604.8580214762837</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,10 +4981,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
         <v>1735.608663915319</v>
@@ -4993,19 +4993,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V10" t="n">
-        <v>970.0546934046018</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W10" t="n">
-        <v>970.0546934046018</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X10" t="n">
-        <v>786.5064863065235</v>
+        <v>456.2408785036205</v>
       </c>
       <c r="Y10" t="n">
-        <v>786.5064863065235</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2007.689769729361</v>
+        <v>1535.258832689357</v>
       </c>
       <c r="C11" t="n">
-        <v>1638.727252788949</v>
+        <v>1256.387055585335</v>
       </c>
       <c r="D11" t="n">
-        <v>1280.461554182199</v>
+        <v>898.1213569785843</v>
       </c>
       <c r="E11" t="n">
-        <v>1219.402203263498</v>
+        <v>512.33310438034</v>
       </c>
       <c r="F11" t="n">
-        <v>808.4162984738909</v>
+        <v>101.3471995907324</v>
       </c>
       <c r="G11" t="n">
-        <v>393.8408528035379</v>
+        <v>101.3471995907324</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907325</v>
+        <v>101.3471995907324</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469183</v>
+        <v>78.51106622469194</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386834</v>
+        <v>308.7333971386838</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420319</v>
+        <v>704.5155104420332</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301225</v>
+        <v>1232.419981301227</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.48485887811</v>
+        <v>1851.484858878112</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765425</v>
+        <v>2485.180661765428</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687101</v>
+        <v>3070.226377687105</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856283</v>
+        <v>3535.048359856288</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882241</v>
+        <v>3835.937563882247</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234592</v>
+        <v>3925.553311234597</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234592</v>
+        <v>3826.588132455667</v>
       </c>
       <c r="T11" t="n">
-        <v>3721.751200750371</v>
+        <v>3622.786021971447</v>
       </c>
       <c r="U11" t="n">
-        <v>3468.260484382979</v>
+        <v>3369.295305604055</v>
       </c>
       <c r="V11" t="n">
-        <v>3137.197597039409</v>
+        <v>3038.232418260484</v>
       </c>
       <c r="W11" t="n">
-        <v>2784.428941769294</v>
+        <v>2685.46376299037</v>
       </c>
       <c r="X11" t="n">
-        <v>2784.428941769294</v>
+        <v>2311.99800472929</v>
       </c>
       <c r="Y11" t="n">
-        <v>2394.289609793483</v>
+        <v>1921.858672753478</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503046</v>
+        <v>88.36274985503049</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469183</v>
+        <v>78.51106622469194</v>
       </c>
       <c r="J12" t="n">
-        <v>78.51106622469183</v>
+        <v>196.8120623792132</v>
       </c>
       <c r="K12" t="n">
-        <v>358.8611360831292</v>
+        <v>477.162132237651</v>
       </c>
       <c r="L12" t="n">
-        <v>782.1489435104388</v>
+        <v>900.4499396649612</v>
       </c>
       <c r="M12" t="n">
-        <v>1295.462717754328</v>
+        <v>1413.763713908851</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279346</v>
+        <v>1955.072021259919</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>1991.670362601622</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>608.1704531740943</v>
+        <v>203.8650582458573</v>
       </c>
       <c r="C13" t="n">
-        <v>608.1704531740943</v>
+        <v>203.8650582458572</v>
       </c>
       <c r="D13" t="n">
-        <v>608.1704531740943</v>
+        <v>78.51106622469194</v>
       </c>
       <c r="E13" t="n">
-        <v>460.2573595917013</v>
+        <v>78.51106622469194</v>
       </c>
       <c r="F13" t="n">
-        <v>313.367412093791</v>
+        <v>78.51106622469194</v>
       </c>
       <c r="G13" t="n">
-        <v>313.367412093791</v>
+        <v>78.51106622469194</v>
       </c>
       <c r="H13" t="n">
-        <v>169.132356598773</v>
+        <v>78.51106622469194</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469183</v>
+        <v>78.51106622469194</v>
       </c>
       <c r="J13" t="n">
-        <v>139.08183346004</v>
+        <v>139.0818334600401</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457703</v>
+        <v>368.4550473457709</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888919</v>
+        <v>717.5002252888926</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1095.908548779222</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542994</v>
+        <v>1470.753784542995</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715849</v>
+        <v>1800.96773471585</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082521</v>
+        <v>2060.002133082523</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551104</v>
+        <v>2155.909043551107</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014273</v>
+        <v>2076.102739014275</v>
       </c>
       <c r="S13" t="n">
-        <v>2076.102739014273</v>
+        <v>1888.302075370158</v>
       </c>
       <c r="T13" t="n">
-        <v>2071.79341284844</v>
+        <v>1667.488017920204</v>
       </c>
       <c r="U13" t="n">
-        <v>1782.702706288729</v>
+        <v>1378.397311360492</v>
       </c>
       <c r="V13" t="n">
-        <v>1528.018218082842</v>
+        <v>1123.712823154605</v>
       </c>
       <c r="W13" t="n">
-        <v>1238.601048045881</v>
+        <v>834.2956531176444</v>
       </c>
       <c r="X13" t="n">
-        <v>1010.611497147864</v>
+        <v>606.3061022196271</v>
       </c>
       <c r="Y13" t="n">
-        <v>789.818918004334</v>
+        <v>385.5135230760969</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905845</v>
+        <v>2266.424947555042</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965433</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358683</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760439</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
-        <v>793.222095970831</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872374</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251932</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128774</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021283</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127286</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304024</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070873</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750195</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469745</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126174</v>
+        <v>3769.39853312617</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206858</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.164119594976</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969967</v>
+        <v>2653.024787619164</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779265</v>
+        <v>240.4596049779263</v>
       </c>
       <c r="K15" t="n">
-        <v>240.4596049779265</v>
+        <v>570.9683475412851</v>
       </c>
       <c r="L15" t="n">
-        <v>731.1919378216778</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M15" t="n">
-        <v>1323.210292073806</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="N15" t="n">
-        <v>1945.306255473142</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="O15" t="n">
-        <v>2133.192111344164</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>714.8515691656036</v>
+        <v>561.9183350635708</v>
       </c>
       <c r="C16" t="n">
-        <v>699.9282680078002</v>
+        <v>554.8288591318052</v>
       </c>
       <c r="D16" t="n">
-        <v>549.8116285954644</v>
+        <v>554.8288591318052</v>
       </c>
       <c r="E16" t="n">
-        <v>401.8985350130713</v>
+        <v>406.9157655494121</v>
       </c>
       <c r="F16" t="n">
-        <v>401.8985350130713</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876502</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156341</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861982</v>
+        <v>431.4224730861978</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693325</v>
+        <v>819.1842911693319</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020528</v>
+        <v>2020.132206020527</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368669</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.3462391076</v>
+        <v>2245.205584149097</v>
       </c>
       <c r="T16" t="n">
-        <v>1957.667456821982</v>
+        <v>2025.526801863479</v>
       </c>
       <c r="U16" t="n">
-        <v>1668.591243136708</v>
+        <v>1736.450588178206</v>
       </c>
       <c r="V16" t="n">
-        <v>1413.906754930821</v>
+        <v>1481.766099972319</v>
       </c>
       <c r="W16" t="n">
-        <v>1124.489584893861</v>
+        <v>1192.348929935358</v>
       </c>
       <c r="X16" t="n">
-        <v>896.5000339958433</v>
+        <v>964.3593790373407</v>
       </c>
       <c r="Y16" t="n">
-        <v>896.5000339958433</v>
+        <v>743.5667998938105</v>
       </c>
     </row>
     <row r="17">
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>261.8464821474271</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>261.8464821474271</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>114.9565346495167</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5674,7 +5674,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797745</v>
@@ -5683,19 +5683,19 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
         <v>2264.108249235165</v>
@@ -5710,13 +5710,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.506641481894</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.517090583877</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5832,25 +5832,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>315.9123021921482</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>315.9123021921482</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>868.667363329047</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="C22" t="n">
-        <v>699.7311804011406</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="D22" t="n">
-        <v>549.6145409888048</v>
+        <v>363.7369613277342</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888048</v>
+        <v>215.8238677453406</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>215.8238677453406</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138399</v>
       </c>
       <c r="Y22" t="n">
-        <v>1050.315828159287</v>
+        <v>695.5020655703098</v>
       </c>
     </row>
     <row r="23">
@@ -5981,10 +5981,10 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>1963.765362972544</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536378</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C25" t="n">
-        <v>705.932442825731</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133952</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310021</v>
+        <v>113.9333885650333</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782928</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038313</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797715</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580257</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603199</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947396</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741509</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704549</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806531</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.4026036630013</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="26">
@@ -6212,25 +6212,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6251,22 +6251,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536384</v>
+        <v>513.8536007400653</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257315</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133958</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310027</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487561</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510502</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.3858538547</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648813</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625426</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138352</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.502065570305</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983533</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6631,40 +6631,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S31" t="n">
-        <v>2225.503448475989</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T31" t="n">
-        <v>2225.503448475989</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1936.428221820187</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1936.428221820187</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="32">
@@ -6695,16 +6695,16 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
         <v>2206.55866301478</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6871,7 +6871,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7023,16 +7023,16 @@
         <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.913939313768</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>956.9553291057244</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C37" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y37" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="38">
@@ -7160,37 +7160,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273903</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>692.9625378792909</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1320.560501433898</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>1872.470231673185</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2529.355041543135</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835329</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>94.65038286230589</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>94.65038286230589</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>2191.112710026074</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.228921741679</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="41">
@@ -7403,55 +7403,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373306</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612593</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2529.355041543135</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536382</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257313</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133955</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310024</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="F43" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961526</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>1965.532750177311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2517.442480416598</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536378</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C46" t="n">
-        <v>705.932442825731</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1759.983708831312</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1505.299220625425</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583877</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>89.18983243802523</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>321.4816126627483</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806772</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114102</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>24.51502091725888</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034032</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>214.3396839712804</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613729315</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>50.29152613729016</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>152.4727529524024</v>
+        <v>160.2282399261798</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>144.5956654067394</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>72.44497470121277</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>44.73700564187384</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>103.8640922513198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>110.0033420516675</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,10 +24373,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>125.5054897610397</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24412,7 +24412,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,19 +24601,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.44677382459905</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>146.8157004124968</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,16 +24886,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>28.15649395853794</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25081,13 +25081,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.9994244361423</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>191.2691783702302</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>80.44045370237473</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,13 +25597,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>250.2980548978881</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>45.44677382459286</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,13 +26026,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>63.36835372228738</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>4.506629716718237</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>915702.5118650638</v>
+        <v>915702.5118650645</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>996091.5435218469</v>
+        <v>996091.5435218464</v>
       </c>
     </row>
     <row r="7">
@@ -26317,43 +26317,43 @@
         <v>431046.9291787487</v>
       </c>
       <c r="D2" t="n">
-        <v>431046.9291787488</v>
+        <v>431046.9291787486</v>
       </c>
       <c r="E2" t="n">
-        <v>386954.437971345</v>
+        <v>386954.4379713451</v>
       </c>
       <c r="F2" t="n">
-        <v>421406.8801099662</v>
+        <v>421406.8801099659</v>
       </c>
       <c r="G2" t="n">
+        <v>423751.9648372533</v>
+      </c>
+      <c r="H2" t="n">
         <v>423751.9648372532</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>423751.9648372532</v>
+      </c>
+      <c r="J2" t="n">
+        <v>423751.964837253</v>
+      </c>
+      <c r="K2" t="n">
         <v>423751.9648372533</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>423751.9648372533</v>
+      </c>
+      <c r="M2" t="n">
+        <v>423751.9648372533</v>
+      </c>
+      <c r="N2" t="n">
         <v>423751.964837253</v>
       </c>
-      <c r="J2" t="n">
-        <v>423751.9648372531</v>
-      </c>
-      <c r="K2" t="n">
-        <v>423751.964837253</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
+        <v>423751.9648372533</v>
+      </c>
+      <c r="P2" t="n">
         <v>423751.9648372532</v>
-      </c>
-      <c r="M2" t="n">
-        <v>423751.9648372531</v>
-      </c>
-      <c r="N2" t="n">
-        <v>423751.9648372531</v>
-      </c>
-      <c r="O2" t="n">
-        <v>423751.9648372532</v>
-      </c>
-      <c r="P2" t="n">
-        <v>423751.9648372533</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185157</v>
+        <v>143114.1392185173</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051382</v>
+        <v>166521.3471051362</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557892</v>
+        <v>11167.23623557934</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.3285511533</v>
+        <v>37377.32855115373</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.4065584892</v>
+        <v>43782.40655848861</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224792</v>
+        <v>3023.297977224748</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="C4" t="n">
         <v>92793.84288319401</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="E4" t="n">
         <v>13507.6871545367</v>
       </c>
       <c r="F4" t="n">
-        <v>13600.27549061735</v>
+        <v>13600.27549061739</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184276</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="J4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="I4" t="n">
-        <v>13606.80811184272</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13606.80811184273</v>
-      </c>
       <c r="K4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184269</v>
+        <v>13606.80811184283</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184275</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214711</v>
+        <v>86093.72216214723</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-1098425.599993431</v>
       </c>
       <c r="C6" t="n">
-        <v>230319.1457341615</v>
+        <v>230319.1457341613</v>
       </c>
       <c r="D6" t="n">
         <v>230319.1457341615</v>
       </c>
       <c r="E6" t="n">
-        <v>144238.8894361455</v>
+        <v>144028.9251922991</v>
       </c>
       <c r="F6" t="n">
-        <v>141143.1290003723</v>
+        <v>141097.2240048083</v>
       </c>
       <c r="G6" t="n">
-        <v>297855.3906659244</v>
+        <v>297820.6527404883</v>
       </c>
       <c r="H6" t="n">
-        <v>309022.6269015036</v>
+        <v>308987.8889760677</v>
       </c>
       <c r="I6" t="n">
-        <v>309022.6269015031</v>
+        <v>308987.8889760677</v>
       </c>
       <c r="J6" t="n">
-        <v>91491.4245042258</v>
+        <v>91456.68657879012</v>
       </c>
       <c r="K6" t="n">
-        <v>309022.6269015032</v>
+        <v>308987.8889760677</v>
       </c>
       <c r="L6" t="n">
-        <v>309022.6269015034</v>
+        <v>308987.8889760677</v>
       </c>
       <c r="M6" t="n">
-        <v>271645.2983503499</v>
+        <v>271610.560424914</v>
       </c>
       <c r="N6" t="n">
-        <v>265240.2203430141</v>
+        <v>265205.4824175789</v>
       </c>
       <c r="O6" t="n">
-        <v>305999.3289242786</v>
+        <v>305964.5909988429</v>
       </c>
       <c r="P6" t="n">
-        <v>309022.6269015034</v>
+        <v>308987.8889760677</v>
       </c>
     </row>
   </sheetData>
@@ -26744,10 +26744,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1212.170267494557</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="E4" t="n">
-        <v>981.3883278086479</v>
+        <v>981.3883278086494</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012576</v>
+        <v>122.393566901259</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218299</v>
+        <v>145.8707812218283</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.986872406355</v>
+        <v>149.9868724063567</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173591</v>
+        <v>178.7569625173567</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.986872406355</v>
+        <v>149.9868724063567</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173591</v>
+        <v>178.7569625173567</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.986872406355</v>
+        <v>149.9868724063567</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173591</v>
+        <v>178.7569625173567</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>358.1123434383891</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>291.3772896647107</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="Y4" t="n">
-        <v>159.6457400831804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.92316891695128</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3.032130797456773</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,10 +27786,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>199.0563465805382</v>
+        <v>219.2788295862198</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39.97215105576743</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>57.2383093922877</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>43.99693036193958</v>
+        <v>3.556976973657015</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28725,7 +28725,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -28788,7 +28788,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28965,10 +28965,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-5.655920176650397e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>-6.063298011819521e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29217,7 +29217,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>-2.955857780762017e-12</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1.765288083215043e-12</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29481,7 +29481,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>-5.854872142663226e-12</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -29703,7 +29703,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -30201,7 +30201,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-6.979185022862088e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
     </row>
     <row r="42">
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485648</v>
+        <v>4.873046301485653</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508991</v>
+        <v>49.90608543508996</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380256</v>
+        <v>187.8681175380258</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307179</v>
+        <v>413.5937135307183</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726055</v>
+        <v>619.8697634726061</v>
       </c>
       <c r="L11" t="n">
-        <v>769.003254221697</v>
+        <v>769.0032542216978</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857424</v>
+        <v>855.6642913857432</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898387</v>
+        <v>869.5098341898395</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294406</v>
+        <v>821.0534800294414</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615136</v>
+        <v>700.7501494615143</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895587</v>
+        <v>526.2341787895591</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356981</v>
+        <v>306.1064947356984</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951043</v>
+        <v>111.0445425951044</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475343</v>
+        <v>21.33176018475346</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188518</v>
+        <v>0.3898437041188522</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969422</v>
+        <v>2.607309631969425</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191521</v>
+        <v>25.18112197191524</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596476</v>
+        <v>89.76921320596485</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783043</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202553</v>
+        <v>421.0233277202557</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256415</v>
+        <v>566.117821625642</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845328</v>
+        <v>660.6327957845335</v>
       </c>
       <c r="N12" t="n">
-        <v>373.03511867426</v>
+        <v>678.1177801147145</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431808</v>
+        <v>179.5642660017204</v>
       </c>
       <c r="P12" t="n">
-        <v>497.881784020547</v>
+        <v>497.8817840205475</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071845</v>
+        <v>332.8207874071848</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533298</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697586</v>
+        <v>48.42963285697591</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780657</v>
+        <v>10.50928750780658</v>
       </c>
       <c r="U12" t="n">
-        <v>0.171533528419041</v>
+        <v>0.1715335284190412</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236084</v>
+        <v>2.185880810236086</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737174</v>
+        <v>19.43446756737176</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691789</v>
+        <v>65.73539745691797</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836911</v>
+        <v>154.5417732836913</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619741</v>
+        <v>253.9596068619743</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509175</v>
+        <v>324.9808615509178</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263709</v>
+        <v>342.6467528263712</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973094</v>
+        <v>334.4993788973097</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050059</v>
+        <v>308.9643167050062</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761896</v>
+        <v>264.3723481761898</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916779</v>
+        <v>183.0377103916781</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570609</v>
+        <v>98.28514988570618</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929611</v>
+        <v>38.09394102929615</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826903</v>
+        <v>9.339672552826912</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765138</v>
+        <v>0.1192298623765139</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>428.3656332688754</v>
       </c>
       <c r="O15" t="n">
-        <v>332.3799372434567</v>
+        <v>694.9967242426203</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982452</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>428.7353800421384</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,13 +32552,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>209.2370040367373</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,7 +32792,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>456.5952253539618</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33020,25 +33020,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M27" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33187,7 +33187,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M29" t="n">
         <v>965.6463440175675</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,10 +33272,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>225.4828684302377</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,7 +33497,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>169.2687847673337</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33743,7 +33743,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>558.375963895806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,10 +33752,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>169.6252075171357</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>338.130958502898</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>169.6252075171357</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>169.9530009943068</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040316</v>
+        <v>232.547809004032</v>
       </c>
       <c r="K11" t="n">
-        <v>399.779912427625</v>
+        <v>399.7799124276256</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517099</v>
+        <v>533.2368392517105</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584697</v>
+        <v>625.3180581584705</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932478</v>
+        <v>640.0967705932485</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077539</v>
+        <v>590.9552686077546</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062441</v>
+        <v>469.5171537062448</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151091</v>
+        <v>303.9284889151096</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156598</v>
+        <v>90.52095692156627</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116376</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458963</v>
+        <v>283.1818887458967</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457673</v>
+        <v>427.5634418457678</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625146</v>
+        <v>518.4987618625153</v>
       </c>
       <c r="N12" t="n">
-        <v>241.6934065909267</v>
+        <v>546.7760680313812</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987364</v>
+        <v>36.96802155727595</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062168</v>
+        <v>363.9073766062172</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.839013321163</v>
+        <v>192.8390133211633</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936581</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701835</v>
+        <v>61.18259316701852</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360912</v>
+        <v>231.6901150360915</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112337</v>
+        <v>352.570886811234</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882114</v>
+        <v>382.2306297882118</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765379</v>
+        <v>378.6315512765383</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190456</v>
+        <v>333.5494446190459</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410831</v>
+        <v>261.6509074410833</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998355</v>
+        <v>96.87566713998372</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069151</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>297.0239211855421</v>
       </c>
       <c r="O15" t="n">
-        <v>189.7836927990123</v>
+        <v>552.4004797981759</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>423.821735783915</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426736</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>297.3936679588052</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36200,13 +36200,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>71.39556506237828</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,7 +36440,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>322.6208179396315</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.0464832629504</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M27" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,10 +36920,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>82.88662398579324</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899078</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060454</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>27.13475084531539</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37391,7 +37391,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>416.2419299737876</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,10 +37400,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>23.94570355317173</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>206.7892464195647</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>23.94570355317173</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>35.9785935799765</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
